--- a/data/pca/factorExposure/factorExposure_2009-01-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.016612650729163</v>
+        <v>0.01514063432889687</v>
       </c>
       <c r="C2">
-        <v>-0.01062855413100526</v>
+        <v>0.01199472272938675</v>
       </c>
       <c r="D2">
-        <v>0.01449109653753834</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01430078050429561</v>
+      </c>
+      <c r="E2">
+        <v>-0.000978411620501037</v>
+      </c>
+      <c r="F2">
+        <v>0.008374519578467259</v>
+      </c>
+      <c r="G2">
+        <v>0.01743215175284015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0814657396890414</v>
+        <v>0.08387178145858985</v>
       </c>
       <c r="C4">
-        <v>-0.08046045789710568</v>
+        <v>0.08684084207040897</v>
       </c>
       <c r="D4">
-        <v>-0.06448385031715903</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06505490501339208</v>
+      </c>
+      <c r="E4">
+        <v>0.008755856205412606</v>
+      </c>
+      <c r="F4">
+        <v>0.03965676724621997</v>
+      </c>
+      <c r="G4">
+        <v>0.03191586582093139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.003091066327170433</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.002017268083053625</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.001572322557786337</v>
+      </c>
+      <c r="E5">
+        <v>-0.002887974898961516</v>
+      </c>
+      <c r="F5">
+        <v>-0.002903351801786464</v>
+      </c>
+      <c r="G5">
+        <v>-0.002441399867075735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.168016310006415</v>
+        <v>0.170250274037723</v>
       </c>
       <c r="C6">
-        <v>0.01768441814317911</v>
+        <v>-0.009160483860302302</v>
       </c>
       <c r="D6">
-        <v>-0.05681149271106087</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05781371793655133</v>
+      </c>
+      <c r="E6">
+        <v>0.02636896503618638</v>
+      </c>
+      <c r="F6">
+        <v>-0.05521408948472409</v>
+      </c>
+      <c r="G6">
+        <v>-0.01031955698459201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05511775308069688</v>
+        <v>0.05940289643116816</v>
       </c>
       <c r="C7">
-        <v>-0.058597592968097</v>
+        <v>0.0630123128376176</v>
       </c>
       <c r="D7">
-        <v>-0.0442927776014886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.051045821787082</v>
+      </c>
+      <c r="E7">
+        <v>0.04290599655178674</v>
+      </c>
+      <c r="F7">
+        <v>0.06840973882021371</v>
+      </c>
+      <c r="G7">
+        <v>0.04458947327270894</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05520525725419978</v>
+        <v>0.05176748227496317</v>
       </c>
       <c r="C8">
-        <v>-0.04497238498359669</v>
+        <v>0.04640772286185788</v>
       </c>
       <c r="D8">
-        <v>0.0205951555078973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0221704819902843</v>
+      </c>
+      <c r="E8">
+        <v>-0.02881103212306441</v>
+      </c>
+      <c r="F8">
+        <v>0.04354264401435034</v>
+      </c>
+      <c r="G8">
+        <v>-0.00118326695929273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06091241906377499</v>
+        <v>0.0645630484318102</v>
       </c>
       <c r="C9">
-        <v>-0.08722970157318038</v>
+        <v>0.09122659328256763</v>
       </c>
       <c r="D9">
-        <v>-0.09014650735261805</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08717286956671549</v>
+      </c>
+      <c r="E9">
+        <v>0.01487681527907519</v>
+      </c>
+      <c r="F9">
+        <v>0.06618420439720422</v>
+      </c>
+      <c r="G9">
+        <v>0.006938811438496699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1091737418949199</v>
+        <v>0.1010132468848105</v>
       </c>
       <c r="C10">
-        <v>0.1462482000042479</v>
+        <v>-0.1388842886045228</v>
       </c>
       <c r="D10">
-        <v>0.1077910919460272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.09743221428328089</v>
+      </c>
+      <c r="E10">
+        <v>-0.008649141190924674</v>
+      </c>
+      <c r="F10">
+        <v>0.03654305352564653</v>
+      </c>
+      <c r="G10">
+        <v>-0.01131303773595869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07898540065789253</v>
+        <v>0.07698174397713989</v>
       </c>
       <c r="C11">
-        <v>-0.1290998508080819</v>
+        <v>0.1289546487650059</v>
       </c>
       <c r="D11">
-        <v>-0.05811784219622305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0496331088240401</v>
+      </c>
+      <c r="E11">
+        <v>-0.01545775999817468</v>
+      </c>
+      <c r="F11">
+        <v>0.07837806868047847</v>
+      </c>
+      <c r="G11">
+        <v>0.008614618049965383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08260474159596437</v>
+        <v>0.07878547642014633</v>
       </c>
       <c r="C12">
-        <v>-0.1477129809618312</v>
+        <v>0.1492984153636945</v>
       </c>
       <c r="D12">
-        <v>-0.06108776217608401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05725237948047435</v>
+      </c>
+      <c r="E12">
+        <v>-0.007375162856603256</v>
+      </c>
+      <c r="F12">
+        <v>0.08435888388055117</v>
+      </c>
+      <c r="G12">
+        <v>0.0126068296203122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04216600060895469</v>
+        <v>0.04259627777569687</v>
       </c>
       <c r="C13">
-        <v>-0.06563164431826782</v>
+        <v>0.07217667957335701</v>
       </c>
       <c r="D13">
-        <v>-0.03008634221148527</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02961120787259568</v>
+      </c>
+      <c r="E13">
+        <v>0.005282128202055692</v>
+      </c>
+      <c r="F13">
+        <v>0.07705792159870153</v>
+      </c>
+      <c r="G13">
+        <v>0.01368338583416067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01932836084021435</v>
+        <v>0.02289740002144327</v>
       </c>
       <c r="C14">
-        <v>-0.04244318446798226</v>
+        <v>0.04272482481601235</v>
       </c>
       <c r="D14">
-        <v>-0.04966987156122925</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04703370687139826</v>
+      </c>
+      <c r="E14">
+        <v>-0.01176840763332079</v>
+      </c>
+      <c r="F14">
+        <v>0.08236852517526372</v>
+      </c>
+      <c r="G14">
+        <v>-0.001683397931451829</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03161254134044553</v>
+        <v>0.03385265179851928</v>
       </c>
       <c r="C15">
-        <v>-0.0567485457041934</v>
+        <v>0.0559318714457446</v>
       </c>
       <c r="D15">
-        <v>-0.04522588729385122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04061381359766181</v>
+      </c>
+      <c r="E15">
+        <v>0.01196603954326</v>
+      </c>
+      <c r="F15">
+        <v>0.0336859461862158</v>
+      </c>
+      <c r="G15">
+        <v>-0.01013649597732824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05735717394462383</v>
+        <v>0.05764353344635237</v>
       </c>
       <c r="C16">
-        <v>-0.1436796998501534</v>
+        <v>0.1438574301748204</v>
       </c>
       <c r="D16">
-        <v>-0.07086981339709045</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0626097051797173</v>
+      </c>
+      <c r="E16">
+        <v>-0.03074038334983911</v>
+      </c>
+      <c r="F16">
+        <v>0.07841606784764739</v>
+      </c>
+      <c r="G16">
+        <v>0.01252975921619853</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.00529214648907889</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.00444249648817941</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.0001332315798132229</v>
+      </c>
+      <c r="E17">
+        <v>-0.00936119728048194</v>
+      </c>
+      <c r="F17">
+        <v>-0.005699160648865902</v>
+      </c>
+      <c r="G17">
+        <v>-0.01426549664892299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03569173208278463</v>
+        <v>0.0515946240223148</v>
       </c>
       <c r="C18">
-        <v>-0.04462818498900654</v>
+        <v>0.04056037649184881</v>
       </c>
       <c r="D18">
-        <v>0.003881136301325968</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.009191177292483938</v>
+      </c>
+      <c r="E18">
+        <v>-0.004355110921451613</v>
+      </c>
+      <c r="F18">
+        <v>-0.04818912227799167</v>
+      </c>
+      <c r="G18">
+        <v>-0.01289062448456839</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.0559330060772626</v>
+        <v>0.05656091479250198</v>
       </c>
       <c r="C20">
-        <v>-0.09369095711969101</v>
+        <v>0.0926355548147075</v>
       </c>
       <c r="D20">
-        <v>-0.07953729325897575</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07564350776805021</v>
+      </c>
+      <c r="E20">
+        <v>-0.01385863998527204</v>
+      </c>
+      <c r="F20">
+        <v>0.07588714167364129</v>
+      </c>
+      <c r="G20">
+        <v>-0.001670294922985904</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04298026365108335</v>
+        <v>0.04485602330314255</v>
       </c>
       <c r="C21">
-        <v>-0.0575401908926489</v>
+        <v>0.05552167044086637</v>
       </c>
       <c r="D21">
-        <v>-0.001828840626512488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0005582674126567462</v>
+      </c>
+      <c r="E21">
+        <v>0.004921094621857841</v>
+      </c>
+      <c r="F21">
+        <v>0.07568779381480836</v>
+      </c>
+      <c r="G21">
+        <v>0.02368816507846887</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04575670037864084</v>
+        <v>0.04437690024035237</v>
       </c>
       <c r="C22">
-        <v>-0.02177951100940844</v>
+        <v>0.02403370970645106</v>
       </c>
       <c r="D22">
-        <v>0.01251522182443669</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02944097044394164</v>
+      </c>
+      <c r="E22">
+        <v>-0.1335191909774595</v>
+      </c>
+      <c r="F22">
+        <v>-0.03556541390434176</v>
+      </c>
+      <c r="G22">
+        <v>0.000213455627893963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04576613809709219</v>
+        <v>0.04438492432559732</v>
       </c>
       <c r="C23">
-        <v>-0.02177178507806444</v>
+        <v>0.02402703325339575</v>
       </c>
       <c r="D23">
-        <v>0.01253930231142273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02946702399973634</v>
+      </c>
+      <c r="E23">
+        <v>-0.1335565975469472</v>
+      </c>
+      <c r="F23">
+        <v>-0.03555989848491619</v>
+      </c>
+      <c r="G23">
+        <v>0.0001759425946680576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06702041981200953</v>
+        <v>0.06647072001272609</v>
       </c>
       <c r="C24">
-        <v>-0.1373707670768395</v>
+        <v>0.1358295545391189</v>
       </c>
       <c r="D24">
-        <v>-0.06244966187462565</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0564371390265795</v>
+      </c>
+      <c r="E24">
+        <v>-0.01014000200309149</v>
+      </c>
+      <c r="F24">
+        <v>0.07526220022300656</v>
+      </c>
+      <c r="G24">
+        <v>0.01273617111044209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07257431489397999</v>
+        <v>0.07092255915336759</v>
       </c>
       <c r="C25">
-        <v>-0.1212682345518416</v>
+        <v>0.1197522174654866</v>
       </c>
       <c r="D25">
-        <v>-0.04507982777428262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03661819786435457</v>
+      </c>
+      <c r="E25">
+        <v>0.0167947581550957</v>
+      </c>
+      <c r="F25">
+        <v>0.09069271188644876</v>
+      </c>
+      <c r="G25">
+        <v>0.01759422738042498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05594525390633311</v>
+        <v>0.06062294915222519</v>
       </c>
       <c r="C26">
-        <v>-0.06726173660031229</v>
+        <v>0.06794556741798448</v>
       </c>
       <c r="D26">
-        <v>-0.02620178376532204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0220898987990793</v>
+      </c>
+      <c r="E26">
+        <v>-0.01229818173650689</v>
+      </c>
+      <c r="F26">
+        <v>0.08075324220704744</v>
+      </c>
+      <c r="G26">
+        <v>-0.0003588717606085413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1704312523976881</v>
+        <v>0.1726860592946984</v>
       </c>
       <c r="C28">
-        <v>0.2280182498774476</v>
+        <v>-0.2290670813975153</v>
       </c>
       <c r="D28">
-        <v>0.02447623267521601</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.03145281725046687</v>
+      </c>
+      <c r="E28">
+        <v>0.05794191111360972</v>
+      </c>
+      <c r="F28">
+        <v>0.1342634900320344</v>
+      </c>
+      <c r="G28">
+        <v>-0.001546931352631145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02381799230585996</v>
+        <v>0.02699195419217935</v>
       </c>
       <c r="C29">
-        <v>-0.04616302454212166</v>
+        <v>0.04390328135489512</v>
       </c>
       <c r="D29">
-        <v>-0.01197005855385169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01017763984367185</v>
+      </c>
+      <c r="E29">
+        <v>-0.02972111733856725</v>
+      </c>
+      <c r="F29">
+        <v>0.07466534103807611</v>
+      </c>
+      <c r="G29">
+        <v>0.001816793822454279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04008579356062709</v>
+        <v>0.04222092901311447</v>
       </c>
       <c r="C30">
-        <v>-0.07018655618252168</v>
+        <v>0.07718042013266332</v>
       </c>
       <c r="D30">
-        <v>-0.1197341879037627</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1039226402088582</v>
+      </c>
+      <c r="E30">
+        <v>0.07003489393945765</v>
+      </c>
+      <c r="F30">
+        <v>0.08419157397639178</v>
+      </c>
+      <c r="G30">
+        <v>-0.01906092600549351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05223597661207027</v>
+        <v>0.05164261599332765</v>
       </c>
       <c r="C31">
-        <v>-0.03211532257783129</v>
+        <v>0.03497641574541813</v>
       </c>
       <c r="D31">
-        <v>-0.01433369828779313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01802852709276285</v>
+      </c>
+      <c r="E31">
+        <v>-0.03529057078423793</v>
+      </c>
+      <c r="F31">
+        <v>0.01526143092559633</v>
+      </c>
+      <c r="G31">
+        <v>0.02485152407235748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04355775748954824</v>
+        <v>0.04819530983712822</v>
       </c>
       <c r="C32">
-        <v>-0.04880184235202069</v>
+        <v>0.04575343997192379</v>
       </c>
       <c r="D32">
-        <v>-0.02201284067211625</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.02379818319351569</v>
+      </c>
+      <c r="E32">
+        <v>-0.02964921694729761</v>
+      </c>
+      <c r="F32">
+        <v>0.004457567853408525</v>
+      </c>
+      <c r="G32">
+        <v>-0.007783285052097156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07886613135371434</v>
+        <v>0.08260406122516122</v>
       </c>
       <c r="C33">
-        <v>-0.1076894770169548</v>
+        <v>0.1175512112092653</v>
       </c>
       <c r="D33">
-        <v>-0.0664135604939686</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0687074923515846</v>
+      </c>
+      <c r="E33">
+        <v>-0.01722886847777859</v>
+      </c>
+      <c r="F33">
+        <v>0.07740471534742675</v>
+      </c>
+      <c r="G33">
+        <v>0.005589903713720213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05531143282853566</v>
+        <v>0.05521769022821634</v>
       </c>
       <c r="C34">
-        <v>-0.1224039832887529</v>
+        <v>0.1241705202328233</v>
       </c>
       <c r="D34">
-        <v>-0.08052745926795561</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.06586518077131386</v>
+      </c>
+      <c r="E34">
+        <v>0.02269621155591853</v>
+      </c>
+      <c r="F34">
+        <v>0.09056351844891275</v>
+      </c>
+      <c r="G34">
+        <v>-0.01748576592065055</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02753576318763274</v>
+        <v>0.02935550461003395</v>
       </c>
       <c r="C35">
-        <v>-0.01606216380140754</v>
+        <v>0.01700243939590536</v>
       </c>
       <c r="D35">
-        <v>-0.02669112321928977</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02206533290049126</v>
+      </c>
+      <c r="E35">
+        <v>-0.02197252505779944</v>
+      </c>
+      <c r="F35">
+        <v>0.03605694036985745</v>
+      </c>
+      <c r="G35">
+        <v>-0.02670680561627284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02264658401978367</v>
+        <v>0.02731883465309743</v>
       </c>
       <c r="C36">
-        <v>-0.04719744377509847</v>
+        <v>0.04771415173136431</v>
       </c>
       <c r="D36">
-        <v>-0.06495074014811111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.05718180440193237</v>
+      </c>
+      <c r="E36">
+        <v>-0.01402535238430498</v>
+      </c>
+      <c r="F36">
+        <v>0.0389102863070368</v>
+      </c>
+      <c r="G36">
+        <v>-0.07938887196672488</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003572098133329601</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.00637199267619745</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0009306782686128964</v>
+      </c>
+      <c r="E37">
+        <v>-0.001911013467580806</v>
+      </c>
+      <c r="F37">
+        <v>0.01034338732835417</v>
+      </c>
+      <c r="G37">
+        <v>0.006831903602591207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08459961936502368</v>
+        <v>0.07895567131931498</v>
       </c>
       <c r="C39">
-        <v>-0.1527449199491334</v>
+        <v>0.1478015740148029</v>
       </c>
       <c r="D39">
-        <v>-0.0445029417757038</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.03816461495512787</v>
+      </c>
+      <c r="E39">
+        <v>-0.01777806668895085</v>
+      </c>
+      <c r="F39">
+        <v>0.1217598303796932</v>
+      </c>
+      <c r="G39">
+        <v>0.05175460270983255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04588298896242294</v>
+        <v>0.05042969721726785</v>
       </c>
       <c r="C40">
-        <v>-0.06121309593639154</v>
+        <v>0.06606434600154756</v>
       </c>
       <c r="D40">
-        <v>-0.01560620644106489</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.004530350503798208</v>
+      </c>
+      <c r="E40">
+        <v>-0.01031917955665727</v>
+      </c>
+      <c r="F40">
+        <v>0.06080735346858504</v>
+      </c>
+      <c r="G40">
+        <v>-0.04093657343601098</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02668323112039657</v>
+        <v>0.02858936710561627</v>
       </c>
       <c r="C41">
-        <v>-0.02093722082962399</v>
+        <v>0.02192235744342477</v>
       </c>
       <c r="D41">
-        <v>0.006770266338744729</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.005924702537334499</v>
+      </c>
+      <c r="E41">
+        <v>-0.009193434541589581</v>
+      </c>
+      <c r="F41">
+        <v>-0.01216293389108057</v>
+      </c>
+      <c r="G41">
+        <v>-0.01325889805271185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.0424295911306243</v>
+        <v>0.04190901356798496</v>
       </c>
       <c r="C43">
-        <v>-0.03864323750659775</v>
+        <v>0.03615389834203703</v>
       </c>
       <c r="D43">
-        <v>-0.003437794491877003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0009007109347755871</v>
+      </c>
+      <c r="E43">
+        <v>-0.03201071893949794</v>
+      </c>
+      <c r="F43">
+        <v>0.02255221482252829</v>
+      </c>
+      <c r="G43">
+        <v>0.002263217868538567</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05638012892816208</v>
+        <v>0.06425718043994957</v>
       </c>
       <c r="C44">
-        <v>-0.07913900037807631</v>
+        <v>0.08552678268354331</v>
       </c>
       <c r="D44">
-        <v>-0.2772241896155913</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.2528225838130323</v>
+      </c>
+      <c r="E44">
+        <v>0.05339614480369482</v>
+      </c>
+      <c r="F44">
+        <v>0.1752968692973074</v>
+      </c>
+      <c r="G44">
+        <v>-0.1642160481777235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0002927189243469386</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.000414375452177654</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0.001206867586907397</v>
+      </c>
+      <c r="E45">
+        <v>0.001421630010043926</v>
+      </c>
+      <c r="F45">
+        <v>0.000936978471911191</v>
+      </c>
+      <c r="G45">
+        <v>0.005884930428675932</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02741308307455251</v>
+        <v>0.02754826072632607</v>
       </c>
       <c r="C46">
-        <v>-0.03239461904119598</v>
+        <v>0.03089748322724752</v>
       </c>
       <c r="D46">
-        <v>-0.01351271392568362</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01270633184327863</v>
+      </c>
+      <c r="E46">
+        <v>-0.0439491321388271</v>
+      </c>
+      <c r="F46">
+        <v>0.06596264199325132</v>
+      </c>
+      <c r="G46">
+        <v>0.03172131552784296</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05130813066855709</v>
+        <v>0.05074867323963841</v>
       </c>
       <c r="C47">
-        <v>-0.02271489879453503</v>
+        <v>0.02563887815901882</v>
       </c>
       <c r="D47">
-        <v>0.01832371496853938</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.009326885186108346</v>
+      </c>
+      <c r="E47">
+        <v>-0.05793929832441702</v>
+      </c>
+      <c r="F47">
+        <v>-0.01334789191607377</v>
+      </c>
+      <c r="G47">
+        <v>0.03076989123270392</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.0467018992847349</v>
+        <v>0.05008469048994298</v>
       </c>
       <c r="C48">
-        <v>-0.06749317405583673</v>
+        <v>0.06652600862086665</v>
       </c>
       <c r="D48">
-        <v>-0.02315980368909469</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02003636501968415</v>
+      </c>
+      <c r="E48">
+        <v>0.01607154635497215</v>
+      </c>
+      <c r="F48">
+        <v>0.05738686038530168</v>
+      </c>
+      <c r="G48">
+        <v>0.02447516359666143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1946494742773355</v>
+        <v>0.1978685707799645</v>
       </c>
       <c r="C49">
-        <v>0.008978544726156253</v>
+        <v>-0.002330754677022197</v>
       </c>
       <c r="D49">
-        <v>-0.03109832182843833</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03778564639972355</v>
+      </c>
+      <c r="E49">
+        <v>0.03496077667207929</v>
+      </c>
+      <c r="F49">
+        <v>-0.05593055711616662</v>
+      </c>
+      <c r="G49">
+        <v>0.0009276005929537864</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05045137766669099</v>
+        <v>0.05201722764404799</v>
       </c>
       <c r="C50">
-        <v>-0.02940092643894409</v>
+        <v>0.03231658205545897</v>
       </c>
       <c r="D50">
-        <v>-0.02247625204735439</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02686751305183397</v>
+      </c>
+      <c r="E50">
+        <v>-0.02378281931155797</v>
+      </c>
+      <c r="F50">
+        <v>0.008404023742571688</v>
+      </c>
+      <c r="G50">
+        <v>0.02406922179769493</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1446162399434139</v>
+        <v>0.1380289403117775</v>
       </c>
       <c r="C52">
-        <v>-0.03514052800429094</v>
+        <v>0.03521195871776997</v>
       </c>
       <c r="D52">
-        <v>-0.05760768659735635</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.05781793919750818</v>
+      </c>
+      <c r="E52">
+        <v>-0.01939779157727769</v>
+      </c>
+      <c r="F52">
+        <v>-0.07006802654350835</v>
+      </c>
+      <c r="G52">
+        <v>0.02963688576745477</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1747843204932324</v>
+        <v>0.1658264421466292</v>
       </c>
       <c r="C53">
-        <v>-0.001546362366206045</v>
+        <v>0.00466147205186969</v>
       </c>
       <c r="D53">
-        <v>-0.09842299910072747</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.1057934860905841</v>
+      </c>
+      <c r="E53">
+        <v>-0.004542091283396398</v>
+      </c>
+      <c r="F53">
+        <v>-0.1122554310524835</v>
+      </c>
+      <c r="G53">
+        <v>0.06100012473992879</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01008100194173517</v>
+        <v>0.01406673580565862</v>
       </c>
       <c r="C54">
-        <v>-0.03039420504828098</v>
+        <v>0.03121544601372118</v>
       </c>
       <c r="D54">
-        <v>-0.01226611287713092</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01312292487685304</v>
+      </c>
+      <c r="E54">
+        <v>-0.02004034311391678</v>
+      </c>
+      <c r="F54">
+        <v>0.04795865959531989</v>
+      </c>
+      <c r="G54">
+        <v>0.005032667784357993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1210640608486562</v>
+        <v>0.11741695186352</v>
       </c>
       <c r="C55">
-        <v>-0.005882346865981753</v>
+        <v>0.01143508091522047</v>
       </c>
       <c r="D55">
-        <v>-0.06503940448779008</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.06969524293948963</v>
+      </c>
+      <c r="E55">
+        <v>-0.04285125904544299</v>
+      </c>
+      <c r="F55">
+        <v>-0.03767189229936788</v>
+      </c>
+      <c r="G55">
+        <v>0.06627696140860324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1812029863127317</v>
+        <v>0.1733327376868106</v>
       </c>
       <c r="C56">
-        <v>0.007058564039670322</v>
+        <v>-0.005740729961316197</v>
       </c>
       <c r="D56">
-        <v>-0.04657092529336566</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0580482330121706</v>
+      </c>
+      <c r="E56">
+        <v>-0.03100635601532113</v>
+      </c>
+      <c r="F56">
+        <v>-0.1493572690200344</v>
+      </c>
+      <c r="G56">
+        <v>0.06420014549635975</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04418173119897762</v>
+        <v>0.04448416123629539</v>
       </c>
       <c r="C58">
-        <v>-0.09357773645036106</v>
+        <v>0.1008450211256753</v>
       </c>
       <c r="D58">
-        <v>0.001722218430289178</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.004725415834075308</v>
+      </c>
+      <c r="E58">
+        <v>-0.04721310673842223</v>
+      </c>
+      <c r="F58">
+        <v>0.04469927468061746</v>
+      </c>
+      <c r="G58">
+        <v>0.02458364710803717</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1872736206029192</v>
+        <v>0.1900946738513018</v>
       </c>
       <c r="C59">
-        <v>0.1782765937123999</v>
+        <v>-0.1823488393517338</v>
       </c>
       <c r="D59">
-        <v>0.08177489194512871</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.08215367310699646</v>
+      </c>
+      <c r="E59">
+        <v>-0.01489060095629808</v>
+      </c>
+      <c r="F59">
+        <v>0.05132484730700507</v>
+      </c>
+      <c r="G59">
+        <v>0.03908890676007921</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2154638918884322</v>
+        <v>0.210246675035057</v>
       </c>
       <c r="C60">
-        <v>-0.01153973603756765</v>
+        <v>0.01877321128852461</v>
       </c>
       <c r="D60">
-        <v>0.06144753219586581</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0408299197406557</v>
+      </c>
+      <c r="E60">
+        <v>-0.00956356421919099</v>
+      </c>
+      <c r="F60">
+        <v>-0.2093714344468542</v>
+      </c>
+      <c r="G60">
+        <v>0.08311240931510464</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06482817550659976</v>
+        <v>0.06219749689539696</v>
       </c>
       <c r="C61">
-        <v>-0.1226638932263086</v>
+        <v>0.1204710520482292</v>
       </c>
       <c r="D61">
-        <v>-0.03545450176059853</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.02945565159659963</v>
+      </c>
+      <c r="E61">
+        <v>-0.02846180313543652</v>
+      </c>
+      <c r="F61">
+        <v>0.08144405712368306</v>
+      </c>
+      <c r="G61">
+        <v>0.02577975827012009</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1685586743404164</v>
+        <v>0.1647980804227334</v>
       </c>
       <c r="C62">
-        <v>0.01131157208389592</v>
+        <v>-0.008251326270736182</v>
       </c>
       <c r="D62">
-        <v>-0.03772964186921209</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.05189298997293459</v>
+      </c>
+      <c r="E62">
+        <v>-0.03282617397131993</v>
+      </c>
+      <c r="F62">
+        <v>-0.120176154243751</v>
+      </c>
+      <c r="G62">
+        <v>0.05867019818350005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03795294385655288</v>
+        <v>0.04336534782286727</v>
       </c>
       <c r="C63">
-        <v>-0.06870061792118053</v>
+        <v>0.07192063834017327</v>
       </c>
       <c r="D63">
-        <v>-0.02934237502599641</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02472903274910202</v>
+      </c>
+      <c r="E63">
+        <v>-0.03104809839253873</v>
+      </c>
+      <c r="F63">
+        <v>0.05052667332074631</v>
+      </c>
+      <c r="G63">
+        <v>-0.0241886147372118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1114306475645122</v>
+        <v>0.1098009066928728</v>
       </c>
       <c r="C64">
-        <v>-0.04990523729151026</v>
+        <v>0.05374527302004721</v>
       </c>
       <c r="D64">
-        <v>-0.03552495150101788</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03824440783872571</v>
+      </c>
+      <c r="E64">
+        <v>-0.0126583267045393</v>
+      </c>
+      <c r="F64">
+        <v>-0.03769779323105229</v>
+      </c>
+      <c r="G64">
+        <v>0.001066372730621687</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1563108377710231</v>
+        <v>0.1599233388058515</v>
       </c>
       <c r="C65">
-        <v>0.05898283357129429</v>
+        <v>-0.04873746447524433</v>
       </c>
       <c r="D65">
-        <v>-0.04833031953427257</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.05377393696271726</v>
+      </c>
+      <c r="E65">
+        <v>0.01304233166294245</v>
+      </c>
+      <c r="F65">
+        <v>-0.01304582084294508</v>
+      </c>
+      <c r="G65">
+        <v>0.02039775108751288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1023594463896548</v>
+        <v>0.09562502789319088</v>
       </c>
       <c r="C66">
-        <v>-0.1307360630006675</v>
+        <v>0.1304361755595961</v>
       </c>
       <c r="D66">
-        <v>-0.04734820703779375</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.0365866326701583</v>
+      </c>
+      <c r="E66">
+        <v>-0.009715487096839929</v>
+      </c>
+      <c r="F66">
+        <v>0.1025399036987927</v>
+      </c>
+      <c r="G66">
+        <v>0.004775820871482948</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05821124933437088</v>
+        <v>0.04913812967392608</v>
       </c>
       <c r="C67">
-        <v>-0.07970669611278057</v>
+        <v>0.0734920158015567</v>
       </c>
       <c r="D67">
-        <v>0.04623056139367391</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.04612306433841696</v>
+      </c>
+      <c r="E67">
+        <v>-0.08596197311225595</v>
+      </c>
+      <c r="F67">
+        <v>-0.04018011410969161</v>
+      </c>
+      <c r="G67">
+        <v>-0.001768818067719578</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1389194074820807</v>
+        <v>0.1415554921826648</v>
       </c>
       <c r="C68">
-        <v>0.2470435692953177</v>
+        <v>-0.249869691922403</v>
       </c>
       <c r="D68">
-        <v>0.0483099903812992</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.05077619763264126</v>
+      </c>
+      <c r="E68">
+        <v>0.09862987832327205</v>
+      </c>
+      <c r="F68">
+        <v>0.1207140842937141</v>
+      </c>
+      <c r="G68">
+        <v>0.02776975250288265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03877929333342808</v>
+        <v>0.03826960927136816</v>
       </c>
       <c r="C69">
-        <v>-0.0120751630189591</v>
+        <v>0.01416955689360363</v>
       </c>
       <c r="D69">
-        <v>-0.01140237164496567</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01515336495943388</v>
+      </c>
+      <c r="E69">
+        <v>-0.06075699059012114</v>
+      </c>
+      <c r="F69">
+        <v>-0.04465532711215137</v>
+      </c>
+      <c r="G69">
+        <v>-0.02369920339378938</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07042447224067856</v>
+        <v>0.07150577547008526</v>
       </c>
       <c r="C70">
-        <v>-0.07990730775718903</v>
+        <v>0.07525914268361023</v>
       </c>
       <c r="D70">
-        <v>0.5113942465064807</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.4017777712258352</v>
+      </c>
+      <c r="E70">
+        <v>-0.2257332511336093</v>
+      </c>
+      <c r="F70">
+        <v>-0.3876484363428887</v>
+      </c>
+      <c r="G70">
+        <v>0.4214910349382197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1616008620087184</v>
+        <v>0.1653900805480547</v>
       </c>
       <c r="C71">
-        <v>0.2540651016326438</v>
+        <v>-0.2540680869824903</v>
       </c>
       <c r="D71">
-        <v>0.04996494006918559</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.05508736849839391</v>
+      </c>
+      <c r="E71">
+        <v>0.1089147926678592</v>
+      </c>
+      <c r="F71">
+        <v>0.1226268872932287</v>
+      </c>
+      <c r="G71">
+        <v>0.02872429227644931</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1439159646972158</v>
+        <v>0.1491318917909667</v>
       </c>
       <c r="C72">
-        <v>-0.01100673219161625</v>
+        <v>0.007960419375301774</v>
       </c>
       <c r="D72">
-        <v>-0.07400163807112992</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.06716934742582105</v>
+      </c>
+      <c r="E72">
+        <v>-0.03924814105134863</v>
+      </c>
+      <c r="F72">
+        <v>-0.0252818098490372</v>
+      </c>
+      <c r="G72">
+        <v>-0.01245349018147053</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1910147796860451</v>
+        <v>0.1990757182658952</v>
       </c>
       <c r="C73">
-        <v>-0.01909042518042326</v>
+        <v>0.02973450512438961</v>
       </c>
       <c r="D73">
-        <v>-0.06238655390459613</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.07084463698299394</v>
+      </c>
+      <c r="E73">
+        <v>-0.05412354077141434</v>
+      </c>
+      <c r="F73">
+        <v>-0.1046140552741709</v>
+      </c>
+      <c r="G73">
+        <v>-0.01661427838011431</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08647473439520625</v>
+        <v>0.08573835969670282</v>
       </c>
       <c r="C74">
-        <v>-0.003395153716296008</v>
+        <v>0.01020366650448204</v>
       </c>
       <c r="D74">
-        <v>-0.07513316443596847</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.08127896650347251</v>
+      </c>
+      <c r="E74">
+        <v>-0.015935715009913</v>
+      </c>
+      <c r="F74">
+        <v>-0.06419434778009617</v>
+      </c>
+      <c r="G74">
+        <v>-0.004888221956289975</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1245490549745442</v>
+        <v>0.1166451270008604</v>
       </c>
       <c r="C75">
-        <v>-0.01884979920712607</v>
+        <v>0.02220683834680835</v>
       </c>
       <c r="D75">
-        <v>-0.06084487137756248</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.06276289279909203</v>
+      </c>
+      <c r="E75">
+        <v>-0.05520473880548705</v>
+      </c>
+      <c r="F75">
+        <v>-0.06186631692766113</v>
+      </c>
+      <c r="G75">
+        <v>0.04094729296733356</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07276934077124772</v>
+        <v>0.0869235416201258</v>
       </c>
       <c r="C77">
-        <v>-0.1142272309688869</v>
+        <v>0.1131931606249949</v>
       </c>
       <c r="D77">
-        <v>-0.06638365757359471</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.07391036734329731</v>
+      </c>
+      <c r="E77">
+        <v>0.01554081780323591</v>
+      </c>
+      <c r="F77">
+        <v>0.08588123420528181</v>
+      </c>
+      <c r="G77">
+        <v>0.1107740135938868</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08961033294998738</v>
+        <v>0.09361093220245767</v>
       </c>
       <c r="C78">
-        <v>-0.1277828035239874</v>
+        <v>0.126695302505627</v>
       </c>
       <c r="D78">
-        <v>-0.07855355055212952</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06103332696179929</v>
+      </c>
+      <c r="E78">
+        <v>0.005669118732232506</v>
+      </c>
+      <c r="F78">
+        <v>0.1196188039477823</v>
+      </c>
+      <c r="G78">
+        <v>0.08872674610801308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1677757805877725</v>
+        <v>0.1627268128715915</v>
       </c>
       <c r="C79">
-        <v>-0.01656406367665464</v>
+        <v>0.01737788161553941</v>
       </c>
       <c r="D79">
-        <v>-0.03114780065378987</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03582761535995061</v>
+      </c>
+      <c r="E79">
+        <v>-0.03541998509558024</v>
+      </c>
+      <c r="F79">
+        <v>-0.05344559899254421</v>
+      </c>
+      <c r="G79">
+        <v>0.0416234014875977</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0748245776221431</v>
+        <v>0.0731622021768307</v>
       </c>
       <c r="C80">
-        <v>-0.05786674740262954</v>
+        <v>0.05618792967179936</v>
       </c>
       <c r="D80">
-        <v>-0.01067255128220631</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.004188375907212553</v>
+      </c>
+      <c r="E80">
+        <v>-0.06043466776002418</v>
+      </c>
+      <c r="F80">
+        <v>0.1075942503398964</v>
+      </c>
+      <c r="G80">
+        <v>-0.09493677151427253</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1118460189292377</v>
+        <v>0.105409274256284</v>
       </c>
       <c r="C81">
-        <v>0.01627378873543973</v>
+        <v>-0.0127738798022067</v>
       </c>
       <c r="D81">
-        <v>-0.02821418076329449</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03394624558064863</v>
+      </c>
+      <c r="E81">
+        <v>-0.05949798250137885</v>
+      </c>
+      <c r="F81">
+        <v>-0.06830268847484447</v>
+      </c>
+      <c r="G81">
+        <v>0.003833927120339893</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1611519404530167</v>
+        <v>0.1575038087756901</v>
       </c>
       <c r="C82">
-        <v>0.02399173567066924</v>
+        <v>-0.01821328414565022</v>
       </c>
       <c r="D82">
-        <v>-0.08836505980014706</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.0958942622664594</v>
+      </c>
+      <c r="E82">
+        <v>0.003641049855663262</v>
+      </c>
+      <c r="F82">
+        <v>-0.1034074131189014</v>
+      </c>
+      <c r="G82">
+        <v>-0.005136190754122938</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05364567169624125</v>
+        <v>0.04965772930816517</v>
       </c>
       <c r="C83">
-        <v>-0.06048561624042766</v>
+        <v>0.05631484211658574</v>
       </c>
       <c r="D83">
-        <v>0.01194791254025054</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01308469452713013</v>
+      </c>
+      <c r="E83">
+        <v>-0.01445629650875195</v>
+      </c>
+      <c r="F83">
+        <v>0.003447986636405217</v>
+      </c>
+      <c r="G83">
+        <v>0.01551354186281125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.05076691466050756</v>
+        <v>0.04805763146525543</v>
       </c>
       <c r="C84">
-        <v>-0.07244960945821195</v>
+        <v>0.06997968652152514</v>
       </c>
       <c r="D84">
-        <v>-0.002085204795487172</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.003112561307111088</v>
+      </c>
+      <c r="E84">
+        <v>-0.01219418038244728</v>
+      </c>
+      <c r="F84">
+        <v>-0.01676227133922744</v>
+      </c>
+      <c r="G84">
+        <v>0.0311394376467469</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1406695640030069</v>
+        <v>0.1346416831109457</v>
       </c>
       <c r="C85">
-        <v>-0.006952153467841476</v>
+        <v>0.01000434680829891</v>
       </c>
       <c r="D85">
-        <v>-0.09179794545632726</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09130799569516895</v>
+      </c>
+      <c r="E85">
+        <v>-0.01324240725062659</v>
+      </c>
+      <c r="F85">
+        <v>-0.04494267903887832</v>
+      </c>
+      <c r="G85">
+        <v>0.0267357281439132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08268092310461291</v>
+        <v>0.08055182386448506</v>
       </c>
       <c r="C86">
-        <v>-0.09996502194953089</v>
+        <v>0.1016960490823818</v>
       </c>
       <c r="D86">
-        <v>0.4781713435279214</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.5365892867247853</v>
+      </c>
+      <c r="E86">
+        <v>-0.5120060090863915</v>
+      </c>
+      <c r="F86">
+        <v>0.4578142269030953</v>
+      </c>
+      <c r="G86">
+        <v>-0.08566108902728212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.088696500240438</v>
+        <v>0.08728393461831646</v>
       </c>
       <c r="C87">
-        <v>-0.0857511816639141</v>
+        <v>0.08670804672466838</v>
       </c>
       <c r="D87">
-        <v>-0.04996390492593655</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.03516388212722487</v>
+      </c>
+      <c r="E87">
+        <v>0.1006286391497935</v>
+      </c>
+      <c r="F87">
+        <v>0.09937838304087147</v>
+      </c>
+      <c r="G87">
+        <v>-0.05549339470829372</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06109391682433728</v>
+        <v>0.06046224084334822</v>
       </c>
       <c r="C88">
-        <v>-0.05950070224581128</v>
+        <v>0.06016174637589932</v>
       </c>
       <c r="D88">
-        <v>-0.01582922456625519</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01850114965797736</v>
+      </c>
+      <c r="E88">
+        <v>-0.01326504823339929</v>
+      </c>
+      <c r="F88">
+        <v>-0.02713101577510141</v>
+      </c>
+      <c r="G88">
+        <v>0.0114609001744588</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1479785933427254</v>
+        <v>0.149945346129369</v>
       </c>
       <c r="C89">
-        <v>0.1951762644504399</v>
+        <v>-0.2067869769782377</v>
       </c>
       <c r="D89">
-        <v>0.02485179640882655</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.03642945608592622</v>
+      </c>
+      <c r="E89">
+        <v>0.08622607695818282</v>
+      </c>
+      <c r="F89">
+        <v>0.09441620311599265</v>
+      </c>
+      <c r="G89">
+        <v>-0.001524964538363919</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1762270768564014</v>
+        <v>0.1828066898161188</v>
       </c>
       <c r="C90">
-        <v>0.2303146238355828</v>
+        <v>-0.2383490270836981</v>
       </c>
       <c r="D90">
-        <v>0.06702507818333837</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.07624213694351138</v>
+      </c>
+      <c r="E90">
+        <v>0.1323715517886633</v>
+      </c>
+      <c r="F90">
+        <v>0.1409726593961487</v>
+      </c>
+      <c r="G90">
+        <v>0.01105523405027459</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.126983833808626</v>
+        <v>0.1210756263793228</v>
       </c>
       <c r="C91">
-        <v>0.02228581231981234</v>
+        <v>-0.02041087982946394</v>
       </c>
       <c r="D91">
-        <v>-0.02739829965826179</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02930421589786671</v>
+      </c>
+      <c r="E91">
+        <v>-0.09339592093788862</v>
+      </c>
+      <c r="F91">
+        <v>-0.1012388429122967</v>
+      </c>
+      <c r="G91">
+        <v>-0.009985251310316943</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1703965959435626</v>
+        <v>0.1730056002322961</v>
       </c>
       <c r="C92">
-        <v>0.2656532854383236</v>
+        <v>-0.2775152580798173</v>
       </c>
       <c r="D92">
-        <v>0.06639917067217055</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.06491435133716543</v>
+      </c>
+      <c r="E92">
+        <v>0.0872238469902019</v>
+      </c>
+      <c r="F92">
+        <v>0.1788235955935021</v>
+      </c>
+      <c r="G92">
+        <v>0.06378134519233024</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1764801911418024</v>
+        <v>0.1837535856961842</v>
       </c>
       <c r="C93">
-        <v>0.2235684737300225</v>
+        <v>-0.2302455931106248</v>
       </c>
       <c r="D93">
-        <v>0.03644420894678093</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.03670202468278171</v>
+      </c>
+      <c r="E93">
+        <v>0.06496507441487523</v>
+      </c>
+      <c r="F93">
+        <v>0.09410444394720002</v>
+      </c>
+      <c r="G93">
+        <v>0.06981692206443725</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1197768147082009</v>
+        <v>0.113845186303263</v>
       </c>
       <c r="C94">
-        <v>-0.03337589598374908</v>
+        <v>0.03331749135758418</v>
       </c>
       <c r="D94">
-        <v>-0.05597167797739851</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.05608412154532622</v>
+      </c>
+      <c r="E94">
+        <v>-0.05495049705831338</v>
+      </c>
+      <c r="F94">
+        <v>-0.05838646427015933</v>
+      </c>
+      <c r="G94">
+        <v>0.03584566267056042</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1199333996816982</v>
+        <v>0.1224130680812003</v>
       </c>
       <c r="C95">
-        <v>-0.1094902501991763</v>
+        <v>0.1159604638018515</v>
       </c>
       <c r="D95">
-        <v>-0.01282910036780274</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.01910959914857578</v>
+      </c>
+      <c r="E95">
+        <v>-0.04767893893991659</v>
+      </c>
+      <c r="F95">
+        <v>0.05721175225229512</v>
+      </c>
+      <c r="G95">
+        <v>0.01018133811187412</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.116671333910685</v>
+        <v>0.1151937397600437</v>
       </c>
       <c r="C96">
-        <v>-0.118594572703329</v>
+        <v>0.1256141924942531</v>
       </c>
       <c r="D96">
-        <v>0.01126418585923711</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.01395360209395419</v>
+      </c>
+      <c r="E96">
+        <v>-0.04022231464071609</v>
+      </c>
+      <c r="F96">
+        <v>-0.1039575441044021</v>
+      </c>
+      <c r="G96">
+        <v>0.08391696369209868</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.190610469385244</v>
+        <v>0.1955286369560162</v>
       </c>
       <c r="C97">
-        <v>0.001877936900175777</v>
+        <v>-0.003654413310433381</v>
       </c>
       <c r="D97">
-        <v>0.108501320563101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.1486327315872599</v>
+      </c>
+      <c r="E97">
+        <v>-0.1011328195626028</v>
+      </c>
+      <c r="F97">
+        <v>-0.2915297793872937</v>
+      </c>
+      <c r="G97">
+        <v>-0.8243318191446877</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1984187606655873</v>
+        <v>0.2038361239110285</v>
       </c>
       <c r="C98">
-        <v>-0.02567927219562432</v>
+        <v>0.03098763814430929</v>
       </c>
       <c r="D98">
-        <v>0.1162362775243431</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1032397749939098</v>
+      </c>
+      <c r="E98">
+        <v>0.01941080262612739</v>
+      </c>
+      <c r="F98">
+        <v>-0.1002177032926777</v>
+      </c>
+      <c r="G98">
+        <v>0.01297061143784919</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05395728119414057</v>
+        <v>0.05358799855854704</v>
       </c>
       <c r="C99">
-        <v>-0.05181172633071759</v>
+        <v>0.05307942020148569</v>
       </c>
       <c r="D99">
-        <v>-0.007565371225800582</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.005670639864205239</v>
+      </c>
+      <c r="E99">
+        <v>-0.00753578910476417</v>
+      </c>
+      <c r="F99">
+        <v>0.03501044326505222</v>
+      </c>
+      <c r="G99">
+        <v>-0.009498774262534678</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1166736912002221</v>
+        <v>0.1089947061785323</v>
       </c>
       <c r="C100">
-        <v>-0.4117361959525691</v>
+        <v>0.3773765319848298</v>
       </c>
       <c r="D100">
-        <v>0.4458609399082337</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.5015681113038235</v>
+      </c>
+      <c r="E100">
+        <v>0.6979391703016177</v>
+      </c>
+      <c r="F100">
+        <v>-0.0281728064330304</v>
+      </c>
+      <c r="G100">
+        <v>-0.0336188026037877</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02375427770218395</v>
+        <v>0.02693763239226625</v>
       </c>
       <c r="C101">
-        <v>-0.04570642133206722</v>
+        <v>0.04341658760010895</v>
       </c>
       <c r="D101">
-        <v>-0.00777410612650448</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.007123477260088356</v>
+      </c>
+      <c r="E101">
+        <v>-0.03104584026256915</v>
+      </c>
+      <c r="F101">
+        <v>0.06931733430505815</v>
+      </c>
+      <c r="G101">
+        <v>0.004903973047752625</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
